--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B0864C-4532-4DA0-B875-D6541F8F3BDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16DAD50-E743-46F3-A792-10C1C8A3964B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="116">
   <si>
     <t>Research Questions</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DR</t>
   </si>
 </sst>
 </file>
@@ -1067,11 +1070,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19CC9DF-CB02-4720-9640-8E1F14AA9AE5}">
-  <dimension ref="A1:R95"/>
+  <dimension ref="A1:S95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
+      <pane ySplit="8" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,39 +1094,40 @@
     <col min="16" max="16" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1193,8 +1197,11 @@
       <c r="R8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1210,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1226,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1242,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1258,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1274,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1290,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1306,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2448,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -2464,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -2480,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -2496,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -2512,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -2528,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -2556,7 +2563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -2569,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -2582,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -2595,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -2608,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -2621,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -2631,16 +2638,25 @@
       <c r="C92">
         <v>1</v>
       </c>
-      <c r="D92" t="str">
+      <c r="D92">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G92">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -2656,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -2672,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16DAD50-E743-46F3-A792-10C1C8A3964B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351B4FB3-0354-426D-8533-4D8EFDFD25FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
@@ -419,10 +419,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -431,9 +440,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,8 +1083,8 @@
   <dimension ref="A1:S95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J92" sqref="J92"/>
+      <pane ySplit="8" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1161,7 +1171,7 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="s">
@@ -1212,9 +1222,9 @@
         <f>IF(COUNT(H9:U9)&gt;0,1,"")</f>
         <v/>
       </c>
-      <c r="G9">
-        <f>SUM(B9:F9)</f>
-        <v>0</v>
+      <c r="G9" s="2" t="str">
+        <f>IF(SUM(B9:F9)&gt;0,SUM(B9:F9),"")</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1228,9 +1238,9 @@
         <f t="shared" ref="D10:D73" si="0">IF(COUNT(H10:U10)&gt;0,1,"")</f>
         <v/>
       </c>
-      <c r="G10">
-        <f t="shared" ref="G10:G73" si="1">SUM(B10:F10)</f>
-        <v>0</v>
+      <c r="G10" s="2" t="str">
+        <f t="shared" ref="G10:G73" si="1">IF(SUM(B10:F10)&gt;0,SUM(B10:F10),"")</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1244,9 +1254,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1260,9 +1270,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1276,9 +1286,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1292,9 +1302,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1308,9 +1318,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1324,9 +1334,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1340,9 +1350,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -1356,9 +1366,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -1372,9 +1382,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1388,9 +1398,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1404,9 +1414,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1420,9 +1430,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -1439,9 +1449,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1461,7 +1474,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1480,9 +1493,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -1496,9 +1509,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1515,9 +1531,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1543,9 +1562,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -1559,9 +1578,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -1575,9 +1594,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -1591,9 +1610,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -1607,9 +1626,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -1623,9 +1642,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -1639,9 +1658,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -1655,9 +1674,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -1671,9 +1690,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -1687,9 +1706,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -1703,9 +1722,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -1719,9 +1738,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -1738,9 +1757,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -1760,9 +1785,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -1776,9 +1801,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G42">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -1792,9 +1817,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G43">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -1808,9 +1833,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G44">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -1824,9 +1849,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -1840,9 +1865,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G46">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -1856,9 +1881,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G47">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -1872,9 +1897,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -1894,9 +1922,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G49">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -1910,9 +1938,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G50">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -1926,9 +1954,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G51">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -1942,9 +1970,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G52">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G52" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -1958,9 +1986,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G53">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -1974,9 +2002,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G54">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -1990,9 +2018,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -2006,9 +2034,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2028,9 +2059,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G57">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G57" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -2044,9 +2075,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G58">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G58" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -2060,9 +2091,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G59">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G59" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -2076,9 +2107,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -2098,9 +2132,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G61">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G61" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -2114,9 +2148,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G62" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
@@ -2130,9 +2164,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G63">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G63" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -2146,9 +2180,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G64">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G64" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -2162,9 +2196,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2181,9 +2218,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G66">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G66" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -2197,9 +2234,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G67">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G67" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -2213,9 +2250,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G68">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -2229,9 +2266,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G69">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -2248,9 +2285,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -2282,9 +2325,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G71">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -2298,9 +2341,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G72">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G72" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -2314,9 +2357,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G73">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -2330,9 +2373,12 @@
         <f t="shared" ref="D74:D95" si="2">IF(COUNT(H74:U74)&gt;0,1,"")</f>
         <v>1</v>
       </c>
-      <c r="G74">
-        <f t="shared" ref="G74:G95" si="3">SUM(B74:F74)</f>
-        <v>2</v>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2">
+        <f t="shared" ref="G74:G95" si="3">IF(SUM(B74:F74)&gt;0,SUM(B74:F74),"")</f>
+        <v>3</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -2352,9 +2398,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G75">
+      <c r="G75" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -2368,9 +2414,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G76">
+      <c r="G76" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -2384,9 +2430,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G77">
+      <c r="G77" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -2400,9 +2446,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G78">
+      <c r="G78" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -2416,9 +2462,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G79">
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" s="2">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -2450,9 +2499,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G80">
+      <c r="G80" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
@@ -2466,9 +2515,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G81">
+      <c r="G81" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
@@ -2482,9 +2531,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G82">
+      <c r="G82" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
@@ -2498,9 +2547,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G83">
+      <c r="G83" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
@@ -2514,9 +2563,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G84">
+      <c r="G84" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
@@ -2530,9 +2579,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G85">
+      <c r="G85" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
@@ -2549,9 +2598,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G86">
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -2571,9 +2626,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G87">
+      <c r="G87" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
@@ -2584,9 +2639,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G88">
+      <c r="G88" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
@@ -2597,9 +2652,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G89">
+      <c r="G89" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.3">
@@ -2610,9 +2665,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G90">
+      <c r="G90" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.3">
@@ -2623,9 +2678,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G91">
+      <c r="G91" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.3">
@@ -2642,9 +2697,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G92">
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" s="2">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -2667,9 +2728,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G93">
+      <c r="G93" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
@@ -2683,9 +2744,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G94">
+      <c r="G94" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
@@ -2699,9 +2760,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G95">
+      <c r="G95" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351B4FB3-0354-426D-8533-4D8EFDFD25FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A296E272-C439-4DD7-9AB9-FB0FB3003571}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
@@ -33,8 +33,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sobreiro</author>
+  </authors>
+  <commentList>
+    <comment ref="T8" authorId="0" shapeId="0" xr:uid="{F06C3E1D-33DC-4F6E-8500-3144539C3FA8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sobreiro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+new approach</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
   <si>
     <t>Research Questions</t>
   </si>
@@ -382,13 +416,22 @@
   </si>
   <si>
     <t>DR</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>DMEL Algorithm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +452,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -783,6 +839,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1079,12 +1139,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19CC9DF-CB02-4720-9640-8E1F14AA9AE5}">
-  <dimension ref="A1:S95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19CC9DF-CB02-4720-9640-8E1F14AA9AE5}">
+  <dimension ref="A1:U95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1105,39 +1165,40 @@
     <col min="17" max="17" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1149,10 +1210,10 @@
       </c>
       <c r="G7">
         <f>SUM(B9:B95)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1210,8 +1271,14 @@
       <c r="S8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8" t="s">
+        <v>116</v>
+      </c>
+      <c r="U8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1227,7 +1294,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1243,7 +1310,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1259,7 +1326,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1275,7 +1342,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1291,7 +1358,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1307,23 +1374,38 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1651,16 +1733,21 @@
       <c r="A34" t="s">
         <v>40</v>
       </c>
-      <c r="B34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -2770,5 +2857,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A296E272-C439-4DD7-9AB9-FB0FB3003571}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13231A9B-E3DF-4DFF-B030-7DA704F213F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
@@ -39,7 +39,55 @@
     <author>Sobreiro</author>
   </authors>
   <commentList>
-    <comment ref="T8" authorId="0" shapeId="0" xr:uid="{F06C3E1D-33DC-4F6E-8500-3144539C3FA8}">
+    <comment ref="T8" authorId="0" shapeId="0" xr:uid="{D062E4F3-8D50-4A89-8DF9-6836C25E924A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sobreiro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Bayesian</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U8" authorId="0" shapeId="0" xr:uid="{5EE6C389-364D-4A3D-8E88-6E69EB3017AB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sobreiro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Genetic Algorithm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V8" authorId="0" shapeId="0" xr:uid="{F06C3E1D-33DC-4F6E-8500-3144539C3FA8}">
       <text>
         <r>
           <rPr>
@@ -68,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="122">
   <si>
     <t>Research Questions</t>
   </si>
@@ -425,6 +473,15 @@
   </si>
   <si>
     <t>DMEL Algorithm</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Bayesian model based In genetic algorithms</t>
+  </si>
+  <si>
+    <t>BY</t>
   </si>
 </sst>
 </file>
@@ -496,10 +553,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,10 +897,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1140,11 +1194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19CC9DF-CB02-4720-9640-8E1F14AA9AE5}">
-  <dimension ref="A1:U95"/>
+  <dimension ref="A1:W95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="8" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U71" sqref="U71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1165,40 +1219,41 @@
     <col min="17" max="17" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.33203125" customWidth="1"/>
+    <col min="22" max="22" width="3.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,10 +1265,10 @@
       </c>
       <c r="G7">
         <f>SUM(B9:B95)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1272,13 +1327,19 @@
         <v>115</v>
       </c>
       <c r="T8" t="s">
+        <v>121</v>
+      </c>
+      <c r="U8" t="s">
+        <v>119</v>
+      </c>
+      <c r="V8" t="s">
         <v>116</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1286,7 +1347,7 @@
         <v>114</v>
       </c>
       <c r="D9" t="str">
-        <f>IF(COUNT(H9:U9)&gt;0,1,"")</f>
+        <f>IF(COUNT(H9:W9)&gt;0,1,"")</f>
         <v/>
       </c>
       <c r="G9" s="2" t="str">
@@ -1294,7 +1355,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1302,7 +1363,7 @@
         <v>114</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:D73" si="0">IF(COUNT(H10:U10)&gt;0,1,"")</f>
+        <f t="shared" ref="D10:D73" si="0">IF(COUNT(H10:W10)&gt;0,1,"")</f>
         <v/>
       </c>
       <c r="G10" s="2" t="str">
@@ -1310,7 +1371,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1326,7 +1387,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1342,7 +1403,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1358,7 +1419,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1374,7 +1435,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1398,14 +1459,17 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15" t="s">
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1713,7 +1777,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1729,7 +1793,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1750,7 +1814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1766,7 +1830,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1782,7 +1846,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1798,23 +1862,41 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
-      <c r="B38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G38" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1830,7 +1912,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1861,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1877,7 +1959,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1893,7 +1975,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1909,7 +1991,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1925,7 +2007,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1941,7 +2023,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -1957,7 +2039,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1973,7 +2055,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2272,7 +2354,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -2294,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -2310,7 +2392,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -2326,7 +2408,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -2342,7 +2424,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -2358,7 +2440,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2401,23 +2483,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
-      <c r="B71" t="s">
-        <v>114</v>
-      </c>
-      <c r="D71" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G71" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -2433,7 +2535,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -2449,7 +2551,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -2457,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <f t="shared" ref="D74:D95" si="2">IF(COUNT(H74:U74)&gt;0,1,"")</f>
+        <f t="shared" ref="D74:D95" si="2">IF(COUNT(H74:W74)&gt;0,1,"")</f>
         <v>1</v>
       </c>
       <c r="F74">
@@ -2474,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2490,7 +2592,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -2506,7 +2608,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2522,7 +2624,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -2538,7 +2640,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -2575,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13231A9B-E3DF-4DFF-B030-7DA704F213F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49B6CFB-DE1D-426D-AA44-C1AE1A40F8FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
   <si>
     <t>Research Questions</t>
   </si>
@@ -1197,8 +1197,8 @@
   <dimension ref="A1:W95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U71" sqref="U71"/>
+      <pane ySplit="8" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="G7">
         <f>SUM(B9:B95)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -2080,23 +2080,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
-      <c r="B49" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G49" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2112,7 +2121,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2128,7 +2137,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -2144,7 +2153,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -2160,7 +2169,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -2176,7 +2185,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -2192,7 +2201,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2217,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2233,7 +2242,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2249,7 +2258,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -2265,7 +2274,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -2290,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2306,7 +2315,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -2322,7 +2331,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -2338,20 +2347,35 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
-      <c r="B64" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G64" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49B6CFB-DE1D-426D-AA44-C1AE1A40F8FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF3B80F-797B-4944-9533-5FB8D849BE13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="122">
   <si>
     <t>Research Questions</t>
   </si>
@@ -1197,8 +1197,8 @@
   <dimension ref="A1:W95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <pane ySplit="8" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="G7">
         <f>SUM(B9:B95)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -1346,7 +1346,7 @@
       <c r="B9" t="s">
         <v>114</v>
       </c>
-      <c r="D9" t="str">
+      <c r="C9" t="str">
         <f>IF(COUNT(H9:W9)&gt;0,1,"")</f>
         <v/>
       </c>
@@ -1362,12 +1362,16 @@
       <c r="B10" t="s">
         <v>114</v>
       </c>
+      <c r="C10" t="str">
+        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:W10)&gt;0,1,"")</f>
+        <v/>
+      </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:D73" si="0">IF(COUNT(H10:W10)&gt;0,1,"")</f>
+        <f t="shared" ref="D10:D73" si="1">IF(COUNT(H10:W10)&gt;0,1,"")</f>
         <v/>
       </c>
       <c r="G10" s="2" t="str">
-        <f t="shared" ref="G10:G73" si="1">IF(SUM(B10:F10)&gt;0,SUM(B10:F10),"")</f>
+        <f t="shared" ref="G10:G73" si="2">IF(SUM(B10:F10)&gt;0,SUM(B10:F10),"")</f>
         <v/>
       </c>
     </row>
@@ -1378,12 +1382,16 @@
       <c r="B11" t="s">
         <v>114</v>
       </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1394,12 +1402,16 @@
       <c r="B12" t="s">
         <v>114</v>
       </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1410,12 +1422,16 @@
       <c r="B13" t="s">
         <v>114</v>
       </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1426,12 +1442,16 @@
       <c r="B14" t="s">
         <v>114</v>
       </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1443,10 +1463,11 @@
         <v>1</v>
       </c>
       <c r="C15">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E15">
@@ -1456,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="U15">
@@ -1476,12 +1497,16 @@
       <c r="B16" t="s">
         <v>114</v>
       </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1492,12 +1517,16 @@
       <c r="B17" t="s">
         <v>114</v>
       </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1508,12 +1537,16 @@
       <c r="B18" t="s">
         <v>114</v>
       </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G18" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1524,12 +1557,16 @@
       <c r="B19" t="s">
         <v>114</v>
       </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1540,12 +1577,16 @@
       <c r="B20" t="s">
         <v>114</v>
       </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1556,12 +1597,16 @@
       <c r="B21" t="s">
         <v>114</v>
       </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G21" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1572,12 +1617,16 @@
       <c r="B22" t="s">
         <v>114</v>
       </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G22" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1589,17 +1638,18 @@
         <v>1</v>
       </c>
       <c r="C23">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H23">
@@ -1616,13 +1666,17 @@
       <c r="B24" t="s">
         <v>114</v>
       </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1635,12 +1689,16 @@
       <c r="B25" t="s">
         <v>114</v>
       </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G25" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1651,16 +1709,20 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1673,16 +1735,20 @@
       <c r="B27">
         <v>1</v>
       </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1704,12 +1770,16 @@
       <c r="B28" t="s">
         <v>114</v>
       </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G28" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1720,12 +1790,16 @@
       <c r="B29" t="s">
         <v>114</v>
       </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G29" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1736,12 +1810,16 @@
       <c r="B30" t="s">
         <v>114</v>
       </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G30" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1752,12 +1830,16 @@
       <c r="B31" t="s">
         <v>114</v>
       </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G31" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1768,12 +1850,16 @@
       <c r="B32" t="s">
         <v>114</v>
       </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G32" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1784,12 +1870,16 @@
       <c r="B33" t="s">
         <v>114</v>
       </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G33" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1800,8 +1890,9 @@
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34">
-        <v>1</v>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1810,8 +1901,8 @@
         <v>1</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -1821,12 +1912,16 @@
       <c r="B35" t="s">
         <v>114</v>
       </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G35" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1837,12 +1932,16 @@
       <c r="B36" t="s">
         <v>114</v>
       </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G36" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1853,12 +1952,16 @@
       <c r="B37" t="s">
         <v>114</v>
       </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G37" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1870,17 +1973,18 @@
         <v>1</v>
       </c>
       <c r="C38">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="T38">
@@ -1903,12 +2007,16 @@
       <c r="B39" t="s">
         <v>114</v>
       </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G39" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1920,10 +2028,11 @@
         <v>1</v>
       </c>
       <c r="C40">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E40">
@@ -1933,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L40">
@@ -1950,12 +2059,16 @@
       <c r="B41" t="s">
         <v>114</v>
       </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G41" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1966,12 +2079,16 @@
       <c r="B42" t="s">
         <v>114</v>
       </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G42" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1979,16 +2096,35 @@
       <c r="A43" t="s">
         <v>49</v>
       </c>
-      <c r="B43" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G43" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
@@ -1998,12 +2134,16 @@
       <c r="B44" t="s">
         <v>114</v>
       </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G44" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2014,12 +2154,16 @@
       <c r="B45" t="s">
         <v>114</v>
       </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G45" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2030,12 +2174,16 @@
       <c r="B46" t="s">
         <v>114</v>
       </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G46" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2046,12 +2194,16 @@
       <c r="B47" t="s">
         <v>114</v>
       </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G47" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2062,16 +2214,20 @@
       <c r="B48">
         <v>1</v>
       </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="D48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -2087,16 +2243,20 @@
       <c r="B49">
         <v>1</v>
       </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="D49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -2112,12 +2272,16 @@
       <c r="B50" t="s">
         <v>114</v>
       </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G50" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2128,12 +2292,16 @@
       <c r="B51" t="s">
         <v>114</v>
       </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G51" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2144,12 +2312,16 @@
       <c r="B52" t="s">
         <v>114</v>
       </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G52" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2160,12 +2332,16 @@
       <c r="B53" t="s">
         <v>114</v>
       </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G53" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2176,12 +2352,16 @@
       <c r="B54" t="s">
         <v>114</v>
       </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G54" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2192,12 +2372,16 @@
       <c r="B55" t="s">
         <v>114</v>
       </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G55" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2208,16 +2392,20 @@
       <c r="B56">
         <v>1</v>
       </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="D56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2233,12 +2421,16 @@
       <c r="B57" t="s">
         <v>114</v>
       </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G57" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2249,12 +2441,16 @@
       <c r="B58" t="s">
         <v>114</v>
       </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G58" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2265,12 +2461,16 @@
       <c r="B59" t="s">
         <v>114</v>
       </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G59" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2281,16 +2481,20 @@
       <c r="B60">
         <v>1</v>
       </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="D60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -2306,12 +2510,16 @@
       <c r="B61" t="s">
         <v>114</v>
       </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G61" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2322,12 +2530,16 @@
       <c r="B62" t="s">
         <v>114</v>
       </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G62" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2338,12 +2550,16 @@
       <c r="B63" t="s">
         <v>114</v>
       </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G63" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2355,17 +2571,18 @@
         <v>1</v>
       </c>
       <c r="C64">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L64">
@@ -2385,16 +2602,20 @@
       <c r="B65">
         <v>1</v>
       </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="D65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2407,12 +2628,16 @@
       <c r="B66" t="s">
         <v>114</v>
       </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G66" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2423,12 +2648,16 @@
       <c r="B67" t="s">
         <v>114</v>
       </c>
+      <c r="C67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D67" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G67" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2439,12 +2668,16 @@
       <c r="B68" t="s">
         <v>114</v>
       </c>
+      <c r="C68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D68" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G68" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2455,12 +2688,16 @@
       <c r="B69" t="s">
         <v>114</v>
       </c>
+      <c r="C69" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D69" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G69" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2472,10 +2709,11 @@
         <v>1</v>
       </c>
       <c r="C70">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E70">
@@ -2485,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H70">
@@ -2515,6 +2753,7 @@
         <v>1</v>
       </c>
       <c r="C71">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D71">
@@ -2524,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H71" s="3">
@@ -2547,16 +2786,32 @@
       <c r="A72" t="s">
         <v>78</v>
       </c>
-      <c r="B72" t="s">
-        <v>114</v>
-      </c>
-      <c r="D72" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G72" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
@@ -2566,12 +2821,16 @@
       <c r="B73" t="s">
         <v>114</v>
       </c>
+      <c r="C73" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G73" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2582,16 +2841,20 @@
       <c r="B74">
         <v>1</v>
       </c>
+      <c r="C74">
+        <f t="shared" ref="C74:C95" si="3">IF(COUNT(H74:W74)&gt;0,1,"")</f>
+        <v>1</v>
+      </c>
       <c r="D74">
-        <f t="shared" ref="D74:D95" si="2">IF(COUNT(H74:W74)&gt;0,1,"")</f>
+        <f t="shared" ref="D74:D95" si="4">IF(COUNT(H74:W74)&gt;0,1,"")</f>
         <v>1</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" ref="G74:G95" si="3">IF(SUM(B74:F74)&gt;0,SUM(B74:F74),"")</f>
-        <v>3</v>
+        <f t="shared" ref="G74:G95" si="5">IF(SUM(B74:F74)&gt;0,SUM(B74:F74),"")</f>
+        <v>4</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -2607,12 +2870,16 @@
       <c r="B75" t="s">
         <v>114</v>
       </c>
+      <c r="C75" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G75" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2623,12 +2890,16 @@
       <c r="B76" t="s">
         <v>114</v>
       </c>
+      <c r="C76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G76" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2639,12 +2910,16 @@
       <c r="B77" t="s">
         <v>114</v>
       </c>
+      <c r="C77" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G77" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2655,12 +2930,16 @@
       <c r="B78" t="s">
         <v>114</v>
       </c>
+      <c r="C78" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G78" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2671,16 +2950,20 @@
       <c r="B79">
         <v>1</v>
       </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -2708,12 +2991,16 @@
       <c r="B80" t="s">
         <v>114</v>
       </c>
+      <c r="C80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G80" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2724,12 +3011,16 @@
       <c r="B81" t="s">
         <v>114</v>
       </c>
+      <c r="C81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G81" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2740,12 +3031,16 @@
       <c r="B82" t="s">
         <v>114</v>
       </c>
+      <c r="C82" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G82" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2756,12 +3051,16 @@
       <c r="B83" t="s">
         <v>114</v>
       </c>
+      <c r="C83" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G83" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2772,12 +3071,16 @@
       <c r="B84" t="s">
         <v>114</v>
       </c>
+      <c r="C84" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G84" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2788,12 +3091,16 @@
       <c r="B85" t="s">
         <v>114</v>
       </c>
+      <c r="C85" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G85" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2805,10 +3112,11 @@
         <v>1</v>
       </c>
       <c r="C86">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E86">
@@ -2818,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="N86">
@@ -2835,12 +3143,16 @@
       <c r="A87" t="s">
         <v>93</v>
       </c>
+      <c r="C87" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G87" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2848,12 +3160,16 @@
       <c r="A88" t="s">
         <v>94</v>
       </c>
+      <c r="C88" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G88" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2861,12 +3177,16 @@
       <c r="A89" t="s">
         <v>95</v>
       </c>
+      <c r="C89" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G89" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2874,12 +3194,16 @@
       <c r="A90" t="s">
         <v>96</v>
       </c>
+      <c r="C90" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G90" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2887,12 +3211,16 @@
       <c r="A91" t="s">
         <v>97</v>
       </c>
+      <c r="C91" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G91" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2904,10 +3232,11 @@
         <v>1</v>
       </c>
       <c r="C92">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E92">
@@ -2917,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H92">
@@ -2937,12 +3266,16 @@
       <c r="B93" t="s">
         <v>114</v>
       </c>
+      <c r="C93" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G93" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2953,12 +3286,16 @@
       <c r="B94" t="s">
         <v>114</v>
       </c>
+      <c r="C94" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G94" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2969,12 +3306,16 @@
       <c r="B95" t="s">
         <v>114</v>
       </c>
+      <c r="C95" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G95" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF3B80F-797B-4944-9533-5FB8D849BE13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3091B07E-07E2-4AD1-8223-DAF883F7BAA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
@@ -111,12 +111,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="W8" authorId="0" shapeId="0" xr:uid="{C62B1D79-D290-41BD-B4FE-C88E23DB29B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sobreiro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cluster</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="127">
   <si>
     <t>Research Questions</t>
   </si>
@@ -436,9 +460,6 @@
     <t>MARK</t>
   </si>
   <si>
-    <t>K-Means</t>
-  </si>
-  <si>
     <t>LR</t>
   </si>
   <si>
@@ -482,6 +503,24 @@
   </si>
   <si>
     <t>BY</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLU</t>
+  </si>
+  <si>
+    <t>Clustering analysis and then clusters used in classification</t>
+  </si>
+  <si>
+    <t>Falta</t>
+  </si>
+  <si>
+    <t>K-Mean</t>
+  </si>
+  <si>
+    <t>IBRF e CWC-SVM</t>
   </si>
 </sst>
 </file>
@@ -1194,11 +1233,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19CC9DF-CB02-4720-9640-8E1F14AA9AE5}">
-  <dimension ref="A1:W95"/>
+  <dimension ref="A1:X95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,7 +1249,7 @@
     <col min="8" max="8" width="3.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
@@ -1221,39 +1260,40 @@
     <col min="19" max="19" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="3.33203125" customWidth="1"/>
     <col min="22" max="22" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1265,10 +1305,17 @@
       </c>
       <c r="G7">
         <f>SUM(B9:B95)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7">
+        <f>COUNTA(A9:A95)-G7</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1300,54 +1347,57 @@
         <v>105</v>
       </c>
       <c r="K8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" t="s">
         <v>106</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>107</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>108</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>109</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>110</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>111</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>112</v>
       </c>
-      <c r="R8" t="s">
-        <v>113</v>
-      </c>
       <c r="S8" t="s">
+        <v>114</v>
+      </c>
+      <c r="T8" t="s">
+        <v>120</v>
+      </c>
+      <c r="U8" t="s">
+        <v>118</v>
+      </c>
+      <c r="V8" t="s">
         <v>115</v>
       </c>
-      <c r="T8" t="s">
-        <v>121</v>
-      </c>
-      <c r="U8" t="s">
-        <v>119</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
+        <v>122</v>
+      </c>
+      <c r="X8" t="s">
         <v>116</v>
       </c>
-      <c r="W8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" t="str">
-        <f>IF(COUNT(H9:W9)&gt;0,1,"")</f>
+        <f>IF(COUNT(H9:X9)&gt;0,1,"")</f>
         <v/>
       </c>
       <c r="G9" s="2" t="str">
@@ -1355,107 +1405,102 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:W10)&gt;0,1,"")</f>
-        <v/>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" ref="D10:D73" si="1">IF(COUNT(H10:W10)&gt;0,1,"")</f>
-        <v/>
+        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:X10)&gt;0,1,"")</f>
+        <v/>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f t="shared" ref="G10:G73" si="2">IF(SUM(B10:F10)&gt;0,SUM(B10:F10),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G10:G73" si="1">IF(SUM(B10:F10)&gt;0,SUM(B10:F10),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D11" t="s">
+        <v>121</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D12" t="s">
+        <v>121</v>
       </c>
       <c r="G12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D13" t="s">
+        <v>121</v>
       </c>
       <c r="G13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D14" t="s">
+        <v>121</v>
       </c>
       <c r="G14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1467,7 +1512,6 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E15">
@@ -1477,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="U15">
@@ -1486,151 +1530,144 @@
       <c r="V15">
         <v>1</v>
       </c>
-      <c r="W15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D16" t="s">
+        <v>121</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D17" t="s">
+        <v>121</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D18" t="s">
+        <v>121</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D19" t="s">
+        <v>121</v>
       </c>
       <c r="G19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D20" t="s">
+        <v>121</v>
       </c>
       <c r="G20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D21" t="s">
+        <v>121</v>
       </c>
       <c r="G21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D22" t="s">
+        <v>121</v>
       </c>
       <c r="G22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1642,14 +1679,13 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H23">
@@ -1659,50 +1695,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D25" t="s">
+        <v>121</v>
       </c>
       <c r="G25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1714,21 +1748,20 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1740,14 +1773,13 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H27">
@@ -1763,127 +1795,130 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D28" t="s">
+        <v>121</v>
       </c>
       <c r="G28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="B29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D30" t="s">
+        <v>121</v>
       </c>
       <c r="G30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D31" t="s">
+        <v>121</v>
       </c>
       <c r="G31" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D32" t="s">
+        <v>121</v>
       </c>
       <c r="G32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D33" t="s">
+        <v>121</v>
       </c>
       <c r="G33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1901,71 +1936,68 @@
         <v>1</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D35" t="s">
+        <v>121</v>
       </c>
       <c r="G35" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D36" t="s">
+        <v>121</v>
       </c>
       <c r="G36" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D37" t="s">
+        <v>121</v>
       </c>
       <c r="G37" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1977,14 +2009,13 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="T38">
@@ -1996,31 +2027,30 @@
       <c r="V38">
         <v>1</v>
       </c>
-      <c r="W38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D39" t="s">
+        <v>121</v>
       </c>
       <c r="G39" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2032,7 +2062,6 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E40">
@@ -2042,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L40">
@@ -2052,47 +2081,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D41" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D41" t="s">
+        <v>121</v>
       </c>
       <c r="G41" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D42" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D42" t="s">
+        <v>121</v>
       </c>
       <c r="G42" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2104,14 +2131,13 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H43">
@@ -2127,87 +2153,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D44" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D44" t="s">
+        <v>121</v>
       </c>
       <c r="G44" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D45" t="s">
+        <v>121</v>
       </c>
       <c r="G45" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D46" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D46" t="s">
+        <v>121</v>
       </c>
       <c r="G46" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
-      <c r="B47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G47" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="X47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2219,14 +2253,13 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H48">
@@ -2248,14 +2281,13 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O49">
@@ -2270,18 +2302,17 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D50" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D50" t="s">
+        <v>121</v>
       </c>
       <c r="G50" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2290,18 +2321,17 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D51" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D51" t="s">
+        <v>121</v>
       </c>
       <c r="G51" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2310,18 +2340,17 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D52" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D52" t="s">
+        <v>121</v>
       </c>
       <c r="G52" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2330,18 +2359,17 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D53" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D53" t="s">
+        <v>121</v>
       </c>
       <c r="G53" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2350,18 +2378,17 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D54" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D54" t="s">
+        <v>121</v>
       </c>
       <c r="G54" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2370,18 +2397,17 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D55" t="s">
+        <v>121</v>
       </c>
       <c r="G55" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2397,14 +2423,13 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J56">
@@ -2419,18 +2444,17 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D57" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D57" t="s">
+        <v>121</v>
       </c>
       <c r="G57" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2439,18 +2463,17 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D58" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D58" t="s">
+        <v>121</v>
       </c>
       <c r="G58" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2459,18 +2482,17 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D59" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D59" t="s">
+        <v>121</v>
       </c>
       <c r="G59" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2486,14 +2508,13 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L60">
@@ -2508,18 +2529,17 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D61" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D61" t="s">
+        <v>121</v>
       </c>
       <c r="G61" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2528,18 +2548,17 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D62" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D62" t="s">
+        <v>121</v>
       </c>
       <c r="G62" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2548,18 +2567,17 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D63" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D63" t="s">
+        <v>121</v>
       </c>
       <c r="G63" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2575,14 +2593,13 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L64">
@@ -2607,14 +2624,13 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N65">
@@ -2626,18 +2642,17 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D66" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D66" t="s">
+        <v>121</v>
       </c>
       <c r="G66" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2646,18 +2661,17 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D67" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D67" t="s">
+        <v>121</v>
       </c>
       <c r="G67" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2666,18 +2680,17 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D68" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D68" t="s">
+        <v>121</v>
       </c>
       <c r="G68" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2686,18 +2699,17 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D69" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D69" t="s">
+        <v>121</v>
       </c>
       <c r="G69" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2713,7 +2725,6 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E70">
@@ -2723,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H70">
@@ -2763,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H71" s="3">
@@ -2794,14 +2805,13 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H72">
@@ -2819,18 +2829,17 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D73" t="s">
+        <v>121</v>
       </c>
       <c r="G73" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2842,18 +2851,17 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:C95" si="3">IF(COUNT(H74:W74)&gt;0,1,"")</f>
+        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:X74)&gt;0,1,"")</f>
         <v>1</v>
       </c>
       <c r="D74">
-        <f t="shared" ref="D74:D95" si="4">IF(COUNT(H74:W74)&gt;0,1,"")</f>
         <v>1</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" ref="G74:G95" si="5">IF(SUM(B74:F74)&gt;0,SUM(B74:F74),"")</f>
+        <f t="shared" ref="G74:G95" si="3">IF(SUM(B74:F74)&gt;0,SUM(B74:F74),"")</f>
         <v>4</v>
       </c>
       <c r="L74">
@@ -2868,18 +2876,17 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D75" t="s">
+        <v>121</v>
+      </c>
+      <c r="G75" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D75" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G75" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2888,18 +2895,17 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C76" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D76" t="s">
+        <v>121</v>
+      </c>
+      <c r="G76" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D76" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G76" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2908,18 +2914,17 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C77" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D77" t="s">
+        <v>121</v>
+      </c>
+      <c r="G77" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D77" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G77" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2928,18 +2933,17 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C78" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D78" t="s">
+        <v>121</v>
+      </c>
+      <c r="G78" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D78" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G78" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2951,18 +2955,17 @@
         <v>1</v>
       </c>
       <c r="C79">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79" s="2">
-        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H79">
@@ -2989,18 +2992,17 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C80" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D80" t="s">
+        <v>121</v>
+      </c>
+      <c r="G80" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D80" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G80" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3009,18 +3011,17 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C81" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D81" t="s">
+        <v>121</v>
+      </c>
+      <c r="G81" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D81" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G81" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3029,18 +3030,17 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C82" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D82" t="s">
+        <v>121</v>
+      </c>
+      <c r="G82" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D82" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G82" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3049,18 +3049,17 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C83" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D83" t="s">
+        <v>121</v>
+      </c>
+      <c r="G83" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D83" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G83" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3069,18 +3068,17 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C84" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D84" t="s">
+        <v>121</v>
+      </c>
+      <c r="G84" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D84" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G84" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3089,18 +3087,17 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C85" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D85" t="s">
+        <v>121</v>
+      </c>
+      <c r="G85" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D85" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G85" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3112,21 +3109,20 @@
         <v>1</v>
       </c>
       <c r="C86">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86" s="2">
-        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="N86">
@@ -3144,15 +3140,14 @@
         <v>93</v>
       </c>
       <c r="C87" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D87" t="s">
+        <v>121</v>
+      </c>
+      <c r="G87" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D87" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G87" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3161,15 +3156,14 @@
         <v>94</v>
       </c>
       <c r="C88" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D88" t="s">
+        <v>121</v>
+      </c>
+      <c r="G88" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D88" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G88" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3178,15 +3172,14 @@
         <v>95</v>
       </c>
       <c r="C89" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D89" t="s">
+        <v>121</v>
+      </c>
+      <c r="G89" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D89" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G89" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3195,15 +3188,14 @@
         <v>96</v>
       </c>
       <c r="C90" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D90" t="s">
+        <v>121</v>
+      </c>
+      <c r="G90" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D90" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G90" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3212,15 +3204,14 @@
         <v>97</v>
       </c>
       <c r="C91" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D91" t="s">
+        <v>121</v>
+      </c>
+      <c r="G91" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G91" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3232,21 +3223,20 @@
         <v>1</v>
       </c>
       <c r="C92">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92" s="2">
-        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H92">
@@ -3264,18 +3254,17 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C93" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D93" t="s">
+        <v>121</v>
+      </c>
+      <c r="G93" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D93" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G93" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3284,18 +3273,17 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D94" t="s">
+        <v>121</v>
+      </c>
+      <c r="G94" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D94" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G94" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3304,18 +3292,17 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C95" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D95" t="s">
+        <v>121</v>
+      </c>
+      <c r="G95" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D95" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G95" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3091B07E-07E2-4AD1-8223-DAF883F7BAA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC33B203-25AA-473C-8F5B-118BEB3BCAA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="128">
   <si>
     <t>Research Questions</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>IBRF e CWC-SVM</t>
+  </si>
+  <si>
+    <t>dddd</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1240,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1292,6 +1295,9 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="K6" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC33B203-25AA-473C-8F5B-118BEB3BCAA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6668BD4-5AAE-4BA0-8D1C-56B1B5D17A69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="130">
   <si>
     <t>Research Questions</t>
   </si>
@@ -523,7 +523,13 @@
     <t>IBRF e CWC-SVM</t>
   </si>
   <si>
-    <t>dddd</t>
+    <t>Specify variables but not the more relevant</t>
+  </si>
+  <si>
+    <t>CHAID</t>
+  </si>
+  <si>
+    <t>GAM</t>
   </si>
 </sst>
 </file>
@@ -1236,11 +1242,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19CC9DF-CB02-4720-9640-8E1F14AA9AE5}">
-  <dimension ref="A1:X95"/>
+  <dimension ref="A1:Z95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <pane ySplit="8" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1263,43 +1269,40 @@
     <col min="19" max="19" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="3.33203125" customWidth="1"/>
     <col min="22" max="22" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.44140625" customWidth="1"/>
+    <col min="23" max="25" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,17 +1314,17 @@
       </c>
       <c r="G7">
         <f>SUM(B9:B95)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
         <v>124</v>
       </c>
       <c r="K7">
         <f>COUNTA(A9:A95)-G7</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1392,10 +1395,16 @@
         <v>122</v>
       </c>
       <c r="X8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1403,7 +1412,7 @@
         <v>113</v>
       </c>
       <c r="C9" t="str">
-        <f>IF(COUNT(H9:X9)&gt;0,1,"")</f>
+        <f>IF(COUNT(H9:Z9)&gt;0,1,"")</f>
         <v/>
       </c>
       <c r="G9" s="2" t="str">
@@ -1411,7 +1420,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1419,7 +1428,7 @@
         <v>113</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:X10)&gt;0,1,"")</f>
+        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:Z10)&gt;0,1,"")</f>
         <v/>
       </c>
       <c r="D10" t="s">
@@ -1430,7 +1439,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1449,7 +1458,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1468,7 +1477,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1487,7 +1496,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1506,7 +1515,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1536,11 +1545,11 @@
       <c r="V15">
         <v>1</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Z15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1559,7 +1568,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1578,7 +1587,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1597,7 +1606,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1616,7 +1625,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1635,7 +1644,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1654,26 +1663,41 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1701,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1723,7 +1747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1742,7 +1766,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1767,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1801,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1820,7 +1844,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1844,11 +1868,11 @@
       <c r="W29">
         <v>1</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Z29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1867,7 +1891,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1886,7 +1910,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1905,7 +1929,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1924,7 +1948,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1946,7 +1970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1965,7 +1989,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1984,7 +2008,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2003,7 +2027,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2033,11 +2057,11 @@
       <c r="V38">
         <v>1</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Z38" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2056,7 +2080,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2087,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2106,7 +2130,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2125,7 +2149,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2159,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2178,7 +2202,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2197,7 +2221,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2216,7 +2240,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2243,11 +2267,11 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Z47" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2275,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2303,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2322,7 +2346,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2341,7 +2365,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -2360,7 +2384,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -2379,7 +2403,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -2398,7 +2422,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -2417,7 +2441,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2445,7 +2469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2464,7 +2488,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2483,7 +2507,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -2502,7 +2526,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -2530,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2549,7 +2573,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -2568,26 +2592,35 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
-      <c r="B63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D63" t="s">
-        <v>121</v>
-      </c>
-      <c r="G63" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="Y63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2857,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:X74)&gt;0,1,"")</f>
+        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:Z74)&gt;0,1,"")</f>
         <v>1</v>
       </c>
       <c r="D74">

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6668BD4-5AAE-4BA0-8D1C-56B1B5D17A69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED6427B-71B8-456C-87BF-C7E63F1AA620}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="131">
   <si>
     <t>Research Questions</t>
   </si>
@@ -502,9 +502,6 @@
     <t>Bayesian model based In genetic algorithms</t>
   </si>
   <si>
-    <t>BY</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -530,6 +527,12 @@
   </si>
   <si>
     <t>GAM</t>
+  </si>
+  <si>
+    <t>ADABoost</t>
+  </si>
+  <si>
+    <t>BAY</t>
   </si>
 </sst>
 </file>
@@ -1242,11 +1245,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19CC9DF-CB02-4720-9640-8E1F14AA9AE5}">
-  <dimension ref="A1:Z95"/>
+  <dimension ref="A1:AA95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1267,42 +1270,43 @@
     <col min="17" max="17" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.33203125" customWidth="1"/>
+    <col min="20" max="20" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.33203125" customWidth="1"/>
     <col min="22" max="22" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="3.44140625" customWidth="1"/>
+    <col min="23" max="26" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,17 +1318,17 @@
       </c>
       <c r="G7">
         <f>SUM(B9:B95)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K7">
         <f>COUNTA(A9:A95)-G7</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1356,7 +1360,7 @@
         <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s">
         <v>106</v>
@@ -1383,7 +1387,7 @@
         <v>114</v>
       </c>
       <c r="T8" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="U8" t="s">
         <v>118</v>
@@ -1392,19 +1396,22 @@
         <v>115</v>
       </c>
       <c r="W8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X8" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y8" t="s">
         <v>128</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>129</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1412,7 +1419,7 @@
         <v>113</v>
       </c>
       <c r="C9" t="str">
-        <f>IF(COUNT(H9:Z9)&gt;0,1,"")</f>
+        <f>IF(COUNT(H9:AA9)&gt;0,1,"")</f>
         <v/>
       </c>
       <c r="G9" s="2" t="str">
@@ -1420,7 +1427,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1428,18 +1435,18 @@
         <v>113</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:Z10)&gt;0,1,"")</f>
+        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:AA10)&gt;0,1,"")</f>
         <v/>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" ref="G10:G73" si="1">IF(SUM(B10:F10)&gt;0,SUM(B10:F10),"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1451,14 +1458,14 @@
         <v/>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1470,14 +1477,14 @@
         <v/>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1489,14 +1496,14 @@
         <v/>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1508,14 +1515,14 @@
         <v/>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1545,11 +1552,11 @@
       <c r="V15">
         <v>1</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1561,14 +1568,14 @@
         <v/>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1580,14 +1587,14 @@
         <v/>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1599,14 +1606,14 @@
         <v/>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1618,14 +1625,14 @@
         <v/>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1637,14 +1644,14 @@
         <v/>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1656,14 +1663,14 @@
         <v/>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1693,11 +1700,11 @@
       <c r="X22">
         <v>1</v>
       </c>
-      <c r="Z22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1725,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1747,26 +1754,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="B25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1791,7 +1813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1825,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1837,14 +1859,14 @@
         <v/>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1868,11 +1890,11 @@
       <c r="W29">
         <v>1</v>
       </c>
-      <c r="Z29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1884,14 +1906,14 @@
         <v/>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1903,14 +1925,14 @@
         <v/>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1922,14 +1944,14 @@
         <v/>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G32" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1941,14 +1963,14 @@
         <v/>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G33" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1970,7 +1992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1982,14 +2004,14 @@
         <v/>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G35" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2001,14 +2023,14 @@
         <v/>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G36" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2020,14 +2042,14 @@
         <v/>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G37" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2057,11 +2079,11 @@
       <c r="V38">
         <v>1</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2073,14 +2095,14 @@
         <v/>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G39" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2111,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2123,14 +2145,14 @@
         <v/>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G41" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2142,14 +2164,14 @@
         <v/>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G42" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2183,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2195,14 +2217,14 @@
         <v/>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G44" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2214,14 +2236,14 @@
         <v/>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G45" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2233,14 +2255,14 @@
         <v/>
       </c>
       <c r="D46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G46" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2267,11 +2289,11 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="Z47" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2299,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2327,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2339,14 +2361,14 @@
         <v/>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G50" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2358,14 +2380,14 @@
         <v/>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G51" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -2377,14 +2399,14 @@
         <v/>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G52" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -2396,33 +2418,42 @@
         <v/>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G53" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
-      <c r="B54" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D54" t="s">
-        <v>121</v>
-      </c>
-      <c r="G54" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -2434,14 +2465,14 @@
         <v/>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G55" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2469,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2481,14 +2512,14 @@
         <v/>
       </c>
       <c r="D57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G57" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2500,14 +2531,14 @@
         <v/>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G58" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -2519,14 +2550,14 @@
         <v/>
       </c>
       <c r="D59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G59" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -2554,7 +2585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2566,14 +2597,14 @@
         <v/>
       </c>
       <c r="D61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G61" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -2585,14 +2616,14 @@
         <v/>
       </c>
       <c r="D62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G62" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -2620,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2688,7 +2719,7 @@
         <v/>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G66" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2707,7 +2738,7 @@
         <v/>
       </c>
       <c r="D67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G67" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2726,7 +2757,7 @@
         <v/>
       </c>
       <c r="D68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G68" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2745,7 +2776,7 @@
         <v/>
       </c>
       <c r="D69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G69" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2875,7 +2906,7 @@
         <v/>
       </c>
       <c r="D73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G73" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2890,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:Z74)&gt;0,1,"")</f>
+        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:AA74)&gt;0,1,"")</f>
         <v>1</v>
       </c>
       <c r="D74">
@@ -2922,7 +2953,7 @@
         <v/>
       </c>
       <c r="D75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G75" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2941,7 +2972,7 @@
         <v/>
       </c>
       <c r="D76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G76" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2960,7 +2991,7 @@
         <v/>
       </c>
       <c r="D77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G77" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2979,7 +3010,7 @@
         <v/>
       </c>
       <c r="D78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G78" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3038,14 +3069,14 @@
         <v/>
       </c>
       <c r="D80" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G80" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3057,14 +3088,14 @@
         <v/>
       </c>
       <c r="D81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G81" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3076,14 +3107,14 @@
         <v/>
       </c>
       <c r="D82" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G82" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3095,33 +3126,45 @@
         <v/>
       </c>
       <c r="D83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G83" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
-      <c r="B84" t="s">
-        <v>113</v>
-      </c>
-      <c r="C84" t="str">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D84" t="s">
-        <v>121</v>
-      </c>
-      <c r="G84" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3133,14 +3176,14 @@
         <v/>
       </c>
       <c r="D85" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G85" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3174,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3183,14 +3226,14 @@
         <v/>
       </c>
       <c r="D87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G87" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3199,14 +3242,14 @@
         <v/>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G88" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -3215,14 +3258,14 @@
         <v/>
       </c>
       <c r="D89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G89" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -3231,14 +3274,14 @@
         <v/>
       </c>
       <c r="D90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G90" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -3247,14 +3290,14 @@
         <v/>
       </c>
       <c r="D91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G91" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -3288,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3300,14 +3343,14 @@
         <v/>
       </c>
       <c r="D93" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G93" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -3319,14 +3362,14 @@
         <v/>
       </c>
       <c r="D94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G94" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -3338,7 +3381,7 @@
         <v/>
       </c>
       <c r="D95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G95" s="2" t="str">
         <f t="shared" si="3"/>

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED6427B-71B8-456C-87BF-C7E63F1AA620}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097C5F24-4CE0-4A65-B93B-0F38FEC5F0A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
@@ -1248,8 +1248,8 @@
   <dimension ref="A1:AA95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="8" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097C5F24-4CE0-4A65-B93B-0F38FEC5F0A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E07056-F2D3-4C77-A183-733A8BE14E6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
@@ -39,6 +39,30 @@
     <author>Sobreiro</author>
   </authors>
   <commentList>
+    <comment ref="S8" authorId="0" shapeId="0" xr:uid="{D93622C7-79AE-423C-8538-80ABBB3A1C67}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sobreiro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Decision Rules</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="T8" authorId="0" shapeId="0" xr:uid="{D062E4F3-8D50-4A89-8DF9-6836C25E924A}">
       <text>
         <r>
@@ -140,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="132">
   <si>
     <t>Research Questions</t>
   </si>
@@ -533,6 +557,9 @@
   </si>
   <si>
     <t>BAY</t>
+  </si>
+  <si>
+    <t>Identifies the accuracy of the models in different periods of time</t>
   </si>
 </sst>
 </file>
@@ -1248,8 +1275,8 @@
   <dimension ref="A1:AA95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+      <pane ySplit="8" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1318,14 +1345,14 @@
       </c>
       <c r="G7">
         <f>SUM(B9:B95)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
         <v>123</v>
       </c>
       <c r="K7">
         <f>COUNTA(A9:A95)-G7</f>
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
@@ -3076,7 +3103,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3095,7 +3122,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3114,7 +3141,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3133,7 +3160,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3164,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3183,7 +3210,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3217,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3233,7 +3260,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3249,23 +3276,44 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
-      <c r="C89" t="str">
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D89" t="s">
-        <v>120</v>
-      </c>
-      <c r="G89" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>0.5</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -3281,7 +3329,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -3297,7 +3345,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -3331,7 +3379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3350,26 +3398,38 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
-      <c r="B94" t="s">
-        <v>113</v>
-      </c>
-      <c r="C94" t="str">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D94" t="s">
-        <v>120</v>
-      </c>
-      <c r="G94" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E07056-F2D3-4C77-A183-733A8BE14E6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB2123A-49DB-4F0E-A4F5-7EAAE1AF976E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
@@ -159,12 +159,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="AA8" authorId="0" shapeId="0" xr:uid="{D4F634C0-50CF-4C90-A93C-7E2F56B25C10}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sobreiro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rotation forest</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="134">
   <si>
     <t>Research Questions</t>
   </si>
@@ -560,6 +584,12 @@
   </si>
   <si>
     <t>Identifies the accuracy of the models in different periods of time</t>
+  </si>
+  <si>
+    <t>RotF</t>
+  </si>
+  <si>
+    <t>RotBoost</t>
   </si>
 </sst>
 </file>
@@ -1272,11 +1302,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19CC9DF-CB02-4720-9640-8E1F14AA9AE5}">
-  <dimension ref="A1:AA95"/>
+  <dimension ref="A1:AC95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G94" sqref="G94"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1301,39 +1331,41 @@
     <col min="21" max="21" width="3.33203125" customWidth="1"/>
     <col min="22" max="22" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="3.44140625" customWidth="1"/>
+    <col min="27" max="27" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,17 +1377,17 @@
       </c>
       <c r="G7">
         <f>SUM(B9:B95)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
         <v>123</v>
       </c>
       <c r="K7">
         <f>COUNTA(A9:A95)-G7</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1435,10 +1467,16 @@
         <v>129</v>
       </c>
       <c r="AA8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1446,7 +1484,7 @@
         <v>113</v>
       </c>
       <c r="C9" t="str">
-        <f>IF(COUNT(H9:AA9)&gt;0,1,"")</f>
+        <f>IF(COUNT(H9:AC9)&gt;0,1,"")</f>
         <v/>
       </c>
       <c r="G9" s="2" t="str">
@@ -1454,7 +1492,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1462,7 +1500,7 @@
         <v>113</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:AA10)&gt;0,1,"")</f>
+        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:AC10)&gt;0,1,"")</f>
         <v/>
       </c>
       <c r="D10" t="s">
@@ -1473,7 +1511,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1492,7 +1530,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1511,7 +1549,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1530,7 +1568,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1549,7 +1587,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1579,11 +1617,11 @@
       <c r="V15">
         <v>1</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AC15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1602,26 +1640,38 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1640,7 +1690,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1659,7 +1709,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1678,7 +1728,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1697,7 +1747,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1727,11 +1777,11 @@
       <c r="X22">
         <v>1</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AC22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1759,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1781,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1815,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1840,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1874,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1893,7 +1943,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1917,11 +1967,11 @@
       <c r="W29">
         <v>1</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AC29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1940,7 +1990,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1959,7 +2009,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1978,7 +2028,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1997,7 +2047,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2019,7 +2069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2038,7 +2088,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2057,7 +2107,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2076,7 +2126,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2106,11 +2156,11 @@
       <c r="V38">
         <v>1</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AC38" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2129,7 +2179,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2160,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2179,7 +2229,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2198,7 +2248,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2232,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2251,7 +2301,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2270,7 +2320,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2289,7 +2339,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2316,11 +2366,11 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AC47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2948,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:AA74)&gt;0,1,"")</f>
+        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:AC74)&gt;0,1,"")</f>
         <v>1</v>
       </c>
       <c r="D74">
@@ -3103,7 +3153,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3122,7 +3172,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3141,7 +3191,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3160,7 +3210,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3191,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3210,7 +3260,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3244,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3260,7 +3310,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3276,7 +3326,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -3309,11 +3359,11 @@
       <c r="N89">
         <v>1</v>
       </c>
-      <c r="AA89" t="s">
+      <c r="AC89" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -3329,7 +3379,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -3345,7 +3395,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -3379,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3398,7 +3448,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -3429,7 +3479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB2123A-49DB-4F0E-A4F5-7EAAE1AF976E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3032B5-4D72-4063-8DAB-61F88AEFF3BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
@@ -183,12 +183,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="AC8" authorId="0" shapeId="0" xr:uid="{42A01D36-B59F-4C29-B9C7-4244F235E429}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sobreiro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fuzzy Genetic classifier</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="135">
   <si>
     <t>Research Questions</t>
   </si>
@@ -590,6 +614,9 @@
   </si>
   <si>
     <t>RotBoost</t>
+  </si>
+  <si>
+    <t>FuzzYClass</t>
   </si>
 </sst>
 </file>
@@ -1302,11 +1329,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19CC9DF-CB02-4720-9640-8E1F14AA9AE5}">
-  <dimension ref="A1:AC95"/>
+  <dimension ref="A1:AD95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,40 +1359,40 @@
     <col min="22" max="22" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="3.44140625" customWidth="1"/>
     <col min="27" max="27" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.77734375" customWidth="1"/>
+    <col min="28" max="29" width="4.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1377,17 +1404,17 @@
       </c>
       <c r="G7">
         <f>SUM(B9:B95)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
         <v>123</v>
       </c>
       <c r="K7">
         <f>COUNTA(A9:A95)-G7</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1473,10 +1500,13 @@
         <v>133</v>
       </c>
       <c r="AC8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1484,7 +1514,7 @@
         <v>113</v>
       </c>
       <c r="C9" t="str">
-        <f>IF(COUNT(H9:AC9)&gt;0,1,"")</f>
+        <f>IF(COUNT(H9:AD9)&gt;0,1,"")</f>
         <v/>
       </c>
       <c r="G9" s="2" t="str">
@@ -1492,7 +1522,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1500,7 +1530,7 @@
         <v>113</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:AC10)&gt;0,1,"")</f>
+        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:AD10)&gt;0,1,"")</f>
         <v/>
       </c>
       <c r="D10" t="s">
@@ -1511,7 +1541,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1530,7 +1560,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1549,26 +1579,38 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1587,7 +1629,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1617,11 +1659,11 @@
       <c r="V15">
         <v>1</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1640,7 +1682,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1671,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1690,7 +1732,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1709,7 +1751,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1728,7 +1770,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1747,7 +1789,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1761,6 +1803,9 @@
       <c r="D22">
         <v>0.5</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
       <c r="F22">
         <v>1</v>
       </c>
@@ -1777,11 +1822,11 @@
       <c r="X22">
         <v>1</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1795,6 +1840,9 @@
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
       <c r="F23">
         <v>1</v>
       </c>
@@ -1809,12 +1857,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="B24" t="s">
-        <v>113</v>
+      <c r="B24">
+        <v>1</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -1823,15 +1871,21 @@
       <c r="D24">
         <v>1</v>
       </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
       <c r="G24" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1845,6 +1899,9 @@
       <c r="D25">
         <v>1</v>
       </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
       <c r="F25">
         <v>1</v>
       </c>
@@ -1865,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1879,6 +1936,9 @@
       <c r="D26">
         <v>1</v>
       </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
       <c r="F26">
         <v>1</v>
       </c>
@@ -1890,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1904,6 +1964,9 @@
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
       <c r="F27">
         <v>1</v>
       </c>
@@ -1924,7 +1987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1943,7 +2006,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1957,6 +2020,9 @@
       <c r="D29">
         <v>1</v>
       </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
       <c r="F29">
         <v>1</v>
       </c>
@@ -1967,11 +2033,11 @@
       <c r="W29">
         <v>1</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1990,7 +2056,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2009,7 +2075,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2028,7 +2094,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2047,29 +2113,41 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2088,7 +2166,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2107,7 +2185,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2126,7 +2204,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2140,6 +2218,9 @@
       <c r="D38">
         <v>1</v>
       </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
       <c r="F38">
         <v>1</v>
       </c>
@@ -2156,11 +2237,11 @@
       <c r="V38">
         <v>1</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AD38" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2179,7 +2260,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2210,7 +2291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2229,7 +2310,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2248,7 +2329,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2262,6 +2343,9 @@
       <c r="D43">
         <v>1</v>
       </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
       <c r="F43">
         <v>1</v>
       </c>
@@ -2282,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2301,7 +2385,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2320,7 +2404,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2339,7 +2423,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2353,6 +2437,9 @@
       <c r="D47">
         <v>1</v>
       </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
       <c r="F47">
         <v>1</v>
       </c>
@@ -2366,11 +2453,11 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="AC47" t="s">
+      <c r="AD47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2383,6 +2470,9 @@
       </c>
       <c r="D48">
         <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -2412,6 +2502,9 @@
       <c r="D49">
         <v>1</v>
       </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
       <c r="F49">
         <v>1</v>
       </c>
@@ -2516,6 +2609,9 @@
       <c r="D54">
         <v>0</v>
       </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
       <c r="F54">
         <v>1</v>
       </c>
@@ -2563,6 +2659,9 @@
       <c r="D56">
         <v>1</v>
       </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
       <c r="F56">
         <v>1</v>
       </c>
@@ -2648,6 +2747,9 @@
       <c r="D60">
         <v>1</v>
       </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
       <c r="F60">
         <v>1</v>
       </c>
@@ -2714,6 +2816,9 @@
       <c r="D63">
         <v>1</v>
       </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
       <c r="F63">
         <v>1</v>
       </c>
@@ -2742,6 +2847,9 @@
       <c r="D64">
         <v>1</v>
       </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
       <c r="F64">
         <v>1</v>
       </c>
@@ -2773,6 +2881,9 @@
       <c r="D65">
         <v>1</v>
       </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
       <c r="F65">
         <v>1</v>
       </c>
@@ -2917,6 +3028,9 @@
       <c r="D71">
         <v>1</v>
       </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
       <c r="F71">
         <v>1</v>
       </c>
@@ -2954,6 +3068,9 @@
       <c r="D72">
         <v>1</v>
       </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
       <c r="F72">
         <v>1</v>
       </c>
@@ -2998,11 +3115,14 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:AC74)&gt;0,1,"")</f>
+        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:AD74)&gt;0,1,"")</f>
         <v>1</v>
       </c>
       <c r="D74">
         <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3108,6 +3228,9 @@
       <c r="D79">
         <v>1</v>
       </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
       <c r="F79">
         <v>1</v>
       </c>
@@ -3153,7 +3276,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3172,7 +3295,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3191,7 +3314,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3210,7 +3333,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3223,6 +3346,9 @@
       </c>
       <c r="D84">
         <v>1</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -3241,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3260,7 +3386,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3294,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3310,7 +3436,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3326,7 +3452,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -3359,11 +3485,11 @@
       <c r="N89">
         <v>1</v>
       </c>
-      <c r="AC89" t="s">
+      <c r="AD89" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -3379,7 +3505,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -3395,7 +3521,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -3429,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3448,7 +3574,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -3461,6 +3587,9 @@
       </c>
       <c r="D94">
         <v>1</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -3479,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3032B5-4D72-4063-8DAB-61F88AEFF3BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561328FC-F7D6-407E-BAB6-62F27C5BD001}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
@@ -207,12 +207,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="AD8" authorId="0" shapeId="0" xr:uid="{72964438-06D2-4C1C-9A56-57545CC599EE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sobreiro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ant Colony Optimization</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE8" authorId="0" shapeId="0" xr:uid="{FB209A98-F695-42E5-8D35-6E976F4F61B6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sobreiro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Active Learning Based Approach</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG8" authorId="0" shapeId="0" xr:uid="{A5B9960C-0B49-4AC5-9FF4-12F0A9432713}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sobreiro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Statistical analysis (t-test, chi square, anova)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="140">
   <si>
     <t>Research Questions</t>
   </si>
@@ -617,6 +689,21 @@
   </si>
   <si>
     <t>FuzzYClass</t>
+  </si>
+  <si>
+    <t>ACO</t>
+  </si>
+  <si>
+    <t>ALBA</t>
+  </si>
+  <si>
+    <t>Ripper</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistical analysis (t-test, chi square, anova), only refers structured and unstructured data. </t>
   </si>
 </sst>
 </file>
@@ -1329,11 +1416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19CC9DF-CB02-4720-9640-8E1F14AA9AE5}">
-  <dimension ref="A1:AD95"/>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H70" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1359,40 +1448,40 @@
     <col min="22" max="22" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="3.44140625" customWidth="1"/>
     <col min="27" max="27" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="4.77734375" customWidth="1"/>
+    <col min="28" max="33" width="4.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1404,17 +1493,17 @@
       </c>
       <c r="G7">
         <f>SUM(B9:B95)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
         <v>123</v>
       </c>
       <c r="K7">
         <f>COUNTA(A9:A95)-G7</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1503,26 +1592,53 @@
         <v>134</v>
       </c>
       <c r="AD8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" t="str">
-        <f>IF(COUNT(H9:AD9)&gt;0,1,"")</f>
-        <v/>
-      </c>
-      <c r="G9" s="2" t="str">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>IF(COUNT(H9:AH9)&gt;0,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
         <f>IF(SUM(B9:F9)&gt;0,SUM(B9:F9),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1530,7 +1646,7 @@
         <v>113</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:AD10)&gt;0,1,"")</f>
+        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:AH10)&gt;0,1,"")</f>
         <v/>
       </c>
       <c r="D10" t="s">
@@ -1541,7 +1657,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1560,7 +1676,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1579,7 +1695,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1610,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1629,7 +1745,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1659,11 +1775,11 @@
       <c r="V15">
         <v>1</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AH15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1682,7 +1798,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1713,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1732,7 +1848,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1751,7 +1867,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1770,7 +1886,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1789,7 +1905,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1822,11 +1938,11 @@
       <c r="X22">
         <v>1</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AH22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1857,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1885,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1922,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1950,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1987,26 +2103,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="B28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2033,11 +2170,11 @@
       <c r="W29">
         <v>1</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AH29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2056,7 +2193,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2075,7 +2212,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2094,7 +2231,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2113,7 +2250,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2147,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2166,7 +2303,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2185,7 +2322,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2204,7 +2341,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2237,30 +2374,42 @@
       <c r="V38">
         <v>1</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AH38" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
-      <c r="B39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D39" t="s">
-        <v>120</v>
-      </c>
-      <c r="G39" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.5</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2291,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2310,7 +2459,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2329,7 +2478,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2366,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2385,7 +2534,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2404,7 +2553,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2423,7 +2572,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2453,11 +2602,11 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="AD47" t="s">
+      <c r="AH47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -3115,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:AD74)&gt;0,1,"")</f>
+        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:AH74)&gt;0,1,"")</f>
         <v>1</v>
       </c>
       <c r="D74">
@@ -3276,7 +3425,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3295,7 +3444,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3314,7 +3463,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3333,7 +3482,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3367,7 +3516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3386,7 +3535,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3420,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3436,7 +3585,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3452,7 +3601,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -3485,11 +3634,11 @@
       <c r="N89">
         <v>1</v>
       </c>
-      <c r="AD89" t="s">
+      <c r="AH89" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -3505,23 +3654,38 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
-      <c r="C91" t="str">
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D91" t="s">
-        <v>120</v>
-      </c>
-      <c r="G91" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="Z91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -3555,7 +3719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3574,7 +3738,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -3608,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561328FC-F7D6-407E-BAB6-62F27C5BD001}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9419F1-1B56-4FE3-AFB5-71236AD1315B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
+    <workbookView xWindow="2460" yWindow="-14745" windowWidth="21915" windowHeight="13800" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -279,12 +279,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="AH8" authorId="0" shapeId="0" xr:uid="{B51E84B5-9C78-4C9F-ADD6-75A4CE890021}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sobreiro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Bagging</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI8" authorId="0" shapeId="0" xr:uid="{37E5B956-E519-4BA0-A511-5868098E04C7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sobreiro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Random Subspace Method</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="142">
   <si>
     <t>Research Questions</t>
   </si>
@@ -704,6 +752,12 @@
   </si>
   <si>
     <t xml:space="preserve">Statistical analysis (t-test, chi square, anova), only refers structured and unstructured data. </t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>RSM</t>
   </si>
 </sst>
 </file>
@@ -825,8 +879,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5067300" y="87630"/>
-          <a:ext cx="1988820" cy="853440"/>
+          <a:off x="5067300" y="91440"/>
+          <a:ext cx="1990725" cy="838200"/>
           <a:chOff x="5105400" y="102870"/>
           <a:chExt cx="2065020" cy="853440"/>
         </a:xfrm>
@@ -1416,13 +1470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19CC9DF-CB02-4720-9640-8E1F14AA9AE5}">
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AJ95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D91" sqref="D91"/>
+      <selection pane="bottomRight" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1448,40 +1502,40 @@
     <col min="22" max="22" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="3.44140625" customWidth="1"/>
     <col min="27" max="27" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="33" width="4.77734375" customWidth="1"/>
+    <col min="28" max="35" width="4.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1493,17 +1547,17 @@
       </c>
       <c r="G7">
         <f>SUM(B9:B95)</f>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
         <v>123</v>
       </c>
       <c r="K7">
         <f>COUNTA(A9:A95)-G7</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1604,10 +1658,16 @@
         <v>138</v>
       </c>
       <c r="AH8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1615,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <f>IF(COUNT(H9:AH9)&gt;0,1,"")</f>
+        <f>IF(COUNT(H9:AJ9)&gt;0,1,"")</f>
         <v>1</v>
       </c>
       <c r="D9">
@@ -1634,11 +1694,11 @@
       <c r="AG9">
         <v>1</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1646,7 +1706,7 @@
         <v>113</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:AH10)&gt;0,1,"")</f>
+        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:AJ10)&gt;0,1,"")</f>
         <v/>
       </c>
       <c r="D10" t="s">
@@ -1657,7 +1717,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1676,7 +1736,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1695,7 +1755,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1726,26 +1786,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1775,11 +1847,11 @@
       <c r="V15">
         <v>1</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1798,7 +1870,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1829,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1848,26 +1920,41 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1886,7 +1973,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1905,7 +1992,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1938,11 +2025,11 @@
       <c r="X22">
         <v>1</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AJ22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1973,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2001,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2038,7 +2125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2066,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2103,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2143,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2170,11 +2257,11 @@
       <c r="W29">
         <v>1</v>
       </c>
-      <c r="AH29" t="s">
+      <c r="AJ29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2193,7 +2280,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2212,7 +2299,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2231,7 +2318,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2250,7 +2337,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2284,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2303,7 +2390,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2322,7 +2409,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2341,7 +2428,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2374,11 +2461,11 @@
       <c r="V38">
         <v>1</v>
       </c>
-      <c r="AH38" t="s">
+      <c r="AJ38" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2409,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2440,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2459,7 +2546,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2478,7 +2565,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2515,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2534,7 +2621,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2553,7 +2640,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2572,7 +2659,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2602,11 +2689,11 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="AH47" t="s">
+      <c r="AJ47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2729,19 +2816,28 @@
       <c r="A53" t="s">
         <v>59</v>
       </c>
-      <c r="B53" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D53" t="s">
-        <v>120</v>
-      </c>
-      <c r="G53" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
@@ -3016,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3044,26 +3140,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
-      <c r="B66" t="s">
-        <v>113</v>
-      </c>
-      <c r="C66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D66" t="s">
-        <v>120</v>
-      </c>
-      <c r="G66" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3082,7 +3187,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3101,7 +3206,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3120,7 +3225,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3163,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3203,7 +3308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3237,26 +3342,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
-      <c r="B73" t="s">
-        <v>113</v>
-      </c>
-      <c r="C73" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D73" t="s">
-        <v>120</v>
-      </c>
-      <c r="G73" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>1</v>
+      </c>
+      <c r="AF73">
+        <v>1</v>
+      </c>
+      <c r="AH73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3264,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:AH74)&gt;0,1,"")</f>
+        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:AJ74)&gt;0,1,"")</f>
         <v>1</v>
       </c>
       <c r="D74">
@@ -3287,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3306,26 +3447,41 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
-      <c r="B76" t="s">
-        <v>113</v>
-      </c>
-      <c r="C76" t="str">
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D76" t="s">
-        <v>120</v>
-      </c>
-      <c r="G76" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3344,7 +3500,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3363,7 +3519,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3406,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3425,26 +3581,44 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
-      <c r="B81" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81" t="str">
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D81" t="s">
-        <v>120</v>
-      </c>
-      <c r="G81" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="AH81">
+        <v>1</v>
+      </c>
+      <c r="AI81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3463,7 +3637,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3482,7 +3656,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3516,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3535,7 +3709,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3569,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3585,7 +3759,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3601,7 +3775,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -3634,11 +3808,11 @@
       <c r="N89">
         <v>1</v>
       </c>
-      <c r="AH89" t="s">
+      <c r="AJ89" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -3654,7 +3828,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -3685,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -3719,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3738,7 +3912,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -3772,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9419F1-1B56-4FE3-AFB5-71236AD1315B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9709E14-7AC0-4C46-9E86-CF73B8520A1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="-14745" windowWidth="21915" windowHeight="13800" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -332,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="147">
   <si>
     <t>Research Questions</t>
   </si>
@@ -758,6 +758,21 @@
   </si>
   <si>
     <t>RSM</t>
+  </si>
+  <si>
+    <t>Decorate</t>
+  </si>
+  <si>
+    <t>Muito interessante. Comparar performance de vários algoritmos para selecionar features para o RotBoost</t>
+  </si>
+  <si>
+    <t>nbtree</t>
+  </si>
+  <si>
+    <t>SVM-RFE</t>
+  </si>
+  <si>
+    <t>Feature selection using SVM.RFE; 2 SVM Extraction; 3 Rule Generation using NBTree</t>
   </si>
 </sst>
 </file>
@@ -879,8 +894,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5067300" y="91440"/>
-          <a:ext cx="1990725" cy="838200"/>
+          <a:off x="5067300" y="87630"/>
+          <a:ext cx="1988820" cy="853440"/>
           <a:chOff x="5105400" y="102870"/>
           <a:chExt cx="2065020" cy="853440"/>
         </a:xfrm>
@@ -1470,13 +1485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19CC9DF-CB02-4720-9640-8E1F14AA9AE5}">
-  <dimension ref="A1:AJ95"/>
+  <dimension ref="A1:AM95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G76" sqref="G76"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1502,40 +1517,40 @@
     <col min="22" max="22" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="3.44140625" customWidth="1"/>
     <col min="27" max="27" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="35" width="4.77734375" customWidth="1"/>
+    <col min="28" max="38" width="4.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,17 +1562,17 @@
       </c>
       <c r="G7">
         <f>SUM(B9:B95)</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
         <v>123</v>
       </c>
       <c r="K7">
         <f>COUNTA(A9:A95)-G7</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1664,10 +1679,19 @@
         <v>141</v>
       </c>
       <c r="AJ8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1675,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <f>IF(COUNT(H9:AJ9)&gt;0,1,"")</f>
+        <f>IF(COUNT(H9:AM9)&gt;0,1,"")</f>
         <v>1</v>
       </c>
       <c r="D9">
@@ -1694,11 +1718,11 @@
       <c r="AG9">
         <v>1</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AM9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1706,7 +1730,7 @@
         <v>113</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:AJ10)&gt;0,1,"")</f>
+        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:AM10)&gt;0,1,"")</f>
         <v/>
       </c>
       <c r="D10" t="s">
@@ -1717,7 +1741,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1736,7 +1760,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1755,7 +1779,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1786,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1817,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1847,11 +1871,11 @@
       <c r="V15">
         <v>1</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AM15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1870,7 +1894,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1901,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1920,7 +1944,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1954,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1973,7 +1997,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1992,7 +2016,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2025,11 +2049,11 @@
       <c r="X22">
         <v>1</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AM22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2060,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2088,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2125,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2153,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2190,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2230,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2257,11 +2281,11 @@
       <c r="W29">
         <v>1</v>
       </c>
-      <c r="AJ29" t="s">
+      <c r="AM29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2280,7 +2304,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2299,7 +2323,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2318,7 +2342,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2337,7 +2361,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2371,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2390,26 +2414,44 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
-      <c r="B36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D36" t="s">
-        <v>120</v>
-      </c>
-      <c r="G36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="AJ36">
+        <v>1</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2428,7 +2470,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2461,11 +2503,11 @@
       <c r="V38">
         <v>1</v>
       </c>
-      <c r="AJ38" t="s">
+      <c r="AM38" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2496,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2527,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2546,7 +2588,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2565,7 +2607,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2602,26 +2644,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
-      <c r="B44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D44" t="s">
-        <v>120</v>
-      </c>
-      <c r="G44" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2640,7 +2697,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2659,7 +2716,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2689,11 +2746,11 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="AJ47" t="s">
+      <c r="AM47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -3112,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3140,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3168,7 +3225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3187,26 +3244,47 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
-      <c r="B68" t="s">
-        <v>113</v>
-      </c>
-      <c r="C68" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D68" t="s">
-        <v>120</v>
-      </c>
-      <c r="G68" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="AA68">
+        <v>1</v>
+      </c>
+      <c r="AB68">
+        <v>1</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3225,7 +3303,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3268,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3308,7 +3386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3342,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3397,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3405,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:AJ74)&gt;0,1,"")</f>
+        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:AM74)&gt;0,1,"")</f>
         <v>1</v>
       </c>
       <c r="D74">
@@ -3428,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3447,7 +3525,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3481,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3500,26 +3578,35 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
-      <c r="B78" t="s">
-        <v>113</v>
-      </c>
-      <c r="C78" t="str">
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="D78" t="s">
         <v>120</v>
       </c>
-      <c r="G78" s="2" t="str">
+      <c r="G78" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="X78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3562,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3581,7 +3668,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3618,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3637,7 +3724,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3656,7 +3743,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3690,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3709,7 +3796,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3743,7 +3830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3759,7 +3846,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3775,7 +3862,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -3808,27 +3895,38 @@
       <c r="N89">
         <v>1</v>
       </c>
-      <c r="AJ89" t="s">
+      <c r="AM89" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
-      <c r="C90" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D90" t="s">
-        <v>120</v>
-      </c>
-      <c r="G90" s="2" t="str">
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>0.5</v>
+      </c>
+      <c r="D90">
+        <v>0.5</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0.5</v>
+      </c>
+      <c r="G90" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+      <c r="AG90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -3859,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -3893,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3912,7 +4010,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -3946,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9709E14-7AC0-4C46-9E86-CF73B8520A1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C565EE4F-B4B6-4DF6-B235-EF823B85B96A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
@@ -332,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="147">
   <si>
     <t>Research Questions</t>
   </si>
@@ -1488,10 +1488,10 @@
   <dimension ref="A1:AM95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1562,14 +1562,14 @@
       </c>
       <c r="G7">
         <f>SUM(B9:B95)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
         <v>123</v>
       </c>
       <c r="K7">
         <f>COUNTA(A9:A95)-G7</f>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
@@ -2854,19 +2854,34 @@
       <c r="A52" t="s">
         <v>58</v>
       </c>
-      <c r="B52" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D52" t="s">
-        <v>120</v>
-      </c>
-      <c r="G52" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0.5</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
@@ -3563,19 +3578,31 @@
       <c r="A77" t="s">
         <v>83</v>
       </c>
-      <c r="B77" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" t="str">
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D77" t="s">
-        <v>120</v>
-      </c>
-      <c r="G77" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0.5</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3.5</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.3">
@@ -3709,19 +3736,28 @@
       <c r="A82" t="s">
         <v>88</v>
       </c>
-      <c r="B82" t="s">
-        <v>113</v>
-      </c>
-      <c r="C82" t="str">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D82" t="s">
-        <v>120</v>
-      </c>
-      <c r="G82" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0.5</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0.5</v>
+      </c>
+      <c r="G82" s="2">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.3">

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C565EE4F-B4B6-4DF6-B235-EF823B85B96A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2B8DEF-D50D-4C91-8599-DAA102D060F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
@@ -332,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="147">
   <si>
     <t>Research Questions</t>
   </si>
@@ -1488,10 +1488,10 @@
   <dimension ref="A1:AM95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G82" sqref="G82"/>
+      <selection pane="bottomRight" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1562,14 +1562,14 @@
       </c>
       <c r="G7">
         <f>SUM(B9:B95)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
         <v>123</v>
       </c>
       <c r="K7">
         <f>COUNTA(A9:A95)-G7</f>
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
@@ -3104,19 +3104,37 @@
       <c r="A62" t="s">
         <v>68</v>
       </c>
-      <c r="B62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D62" t="s">
-        <v>120</v>
-      </c>
-      <c r="G62" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
@@ -4031,19 +4049,31 @@
       <c r="A93" t="s">
         <v>99</v>
       </c>
-      <c r="B93" t="s">
-        <v>113</v>
-      </c>
-      <c r="C93" t="str">
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D93" t="s">
-        <v>120</v>
-      </c>
-      <c r="G93" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" s="2">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:39" x14ac:dyDescent="0.3">

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2B8DEF-D50D-4C91-8599-DAA102D060F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E09442-C84F-401A-A11D-5A66C887AB66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
@@ -327,12 +327,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="AM8" authorId="0" shapeId="0" xr:uid="{C66256C4-7A2E-4241-9007-7260039756D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sobreiro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Alternating Decision Trees</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="148">
   <si>
     <t>Research Questions</t>
   </si>
@@ -773,6 +797,9 @@
   </si>
   <si>
     <t>Feature selection using SVM.RFE; 2 SVM Extraction; 3 Rule Generation using NBTree</t>
+  </si>
+  <si>
+    <t>ADT</t>
   </si>
 </sst>
 </file>
@@ -1485,13 +1512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19CC9DF-CB02-4720-9640-8E1F14AA9AE5}">
-  <dimension ref="A1:AM95"/>
+  <dimension ref="A1:AN95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G93" sqref="G93"/>
+      <selection pane="bottomRight" activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1517,40 +1544,40 @@
     <col min="22" max="22" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="3.44140625" customWidth="1"/>
     <col min="27" max="27" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="38" width="4.77734375" customWidth="1"/>
+    <col min="28" max="39" width="4.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1562,17 +1589,17 @@
       </c>
       <c r="G7">
         <f>SUM(B9:B95)</f>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
         <v>123</v>
       </c>
       <c r="K7">
         <f>COUNTA(A9:A95)-G7</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1688,10 +1715,13 @@
         <v>142</v>
       </c>
       <c r="AM8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1699,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <f>IF(COUNT(H9:AM9)&gt;0,1,"")</f>
+        <f>IF(COUNT(H9:AN9)&gt;0,1,"")</f>
         <v>1</v>
       </c>
       <c r="D9">
@@ -1718,11 +1748,11 @@
       <c r="AG9">
         <v>1</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1730,7 +1760,7 @@
         <v>113</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:AM10)&gt;0,1,"")</f>
+        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:AN10)&gt;0,1,"")</f>
         <v/>
       </c>
       <c r="D10" t="s">
@@ -1741,7 +1771,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1760,7 +1790,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1779,7 +1809,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1810,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1841,7 +1871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1871,11 +1901,11 @@
       <c r="V15">
         <v>1</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1894,7 +1924,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1925,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1944,7 +1974,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1978,26 +2008,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2016,7 +2064,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2049,11 +2097,11 @@
       <c r="X22">
         <v>1</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AN22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2084,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2112,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2149,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2177,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2214,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2254,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2281,11 +2329,11 @@
       <c r="W29">
         <v>1</v>
       </c>
-      <c r="AM29" t="s">
+      <c r="AN29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2304,7 +2352,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2323,7 +2371,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2342,7 +2390,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2361,7 +2409,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2395,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2414,7 +2462,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2447,11 +2495,11 @@
       <c r="AK36">
         <v>1</v>
       </c>
-      <c r="AM36" t="s">
+      <c r="AN36" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2470,7 +2518,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2503,11 +2551,11 @@
       <c r="V38">
         <v>1</v>
       </c>
-      <c r="AM38" t="s">
+      <c r="AN38" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2538,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2569,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2588,7 +2636,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2607,7 +2655,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2644,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2678,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2697,7 +2745,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2716,7 +2764,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2746,11 +2794,11 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="AM47" t="s">
+      <c r="AN47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -3202,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3230,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3258,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3277,7 +3325,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3313,11 +3361,11 @@
       <c r="AL68">
         <v>1</v>
       </c>
-      <c r="AM68" t="s">
+      <c r="AN68" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3336,7 +3384,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3379,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3419,7 +3467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3453,7 +3501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3508,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3516,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:AM74)&gt;0,1,"")</f>
+        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:AN74)&gt;0,1,"")</f>
         <v>1</v>
       </c>
       <c r="D74">
@@ -3539,7 +3587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3558,7 +3606,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3592,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3623,7 +3671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3651,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3694,26 +3742,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
-      <c r="B80" t="s">
-        <v>113</v>
-      </c>
-      <c r="C80" t="str">
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D80" t="s">
-        <v>120</v>
-      </c>
-      <c r="G80" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3750,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3778,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3797,7 +3860,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3831,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3850,7 +3913,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3884,23 +3947,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
-      <c r="C87" t="str">
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D87" t="s">
-        <v>120</v>
-      </c>
-      <c r="G87" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0.5</v>
+      </c>
+      <c r="G87" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="T87">
+        <v>1</v>
+      </c>
+      <c r="AH87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3916,7 +3997,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -3949,11 +4030,11 @@
       <c r="N89">
         <v>1</v>
       </c>
-      <c r="AM89" t="s">
+      <c r="AN89" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -3980,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -4011,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -4045,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -4076,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -4110,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E09442-C84F-401A-A11D-5A66C887AB66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCCDD9B-DAD7-454C-818D-E4DC840C3FAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCCDD9B-DAD7-454C-818D-E4DC840C3FAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D3609A-B1C5-4CC5-A7AC-33CBBD2BA20B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
+    <workbookView xWindow="1545" yWindow="-15105" windowWidth="22305" windowHeight="12360" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,12 +351,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="AN8" authorId="0" shapeId="0" xr:uid="{D879833A-D7E4-4D69-B38E-C5DC15DF543E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sobreiro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Feature-selection-based dynamic transfer ensemble model for customer churn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO8" authorId="0" shapeId="0" xr:uid="{12B1BCD2-9B9F-47C8-AD19-44E2A7A30A01}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sobreiro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Transfer Learning</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="154">
   <si>
     <t>Research Questions</t>
   </si>
@@ -800,6 +848,24 @@
   </si>
   <si>
     <t>ADT</t>
+  </si>
+  <si>
+    <t>Não identificou as features mais relevantes</t>
+  </si>
+  <si>
+    <t>Utiliza high cardinality data. CP, zip, family names…</t>
+  </si>
+  <si>
+    <t>Erro casting. Não aborda contractual settings</t>
+  </si>
+  <si>
+    <t>Feature-selection-based dynamic transfer ensemble model for customer churn</t>
+  </si>
+  <si>
+    <t>FSDTE</t>
+  </si>
+  <si>
+    <t>TL</t>
   </si>
 </sst>
 </file>
@@ -842,12 +908,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -871,11 +943,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,8 +995,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5067300" y="87630"/>
-          <a:ext cx="1988820" cy="853440"/>
+          <a:off x="5067300" y="91440"/>
+          <a:ext cx="1990725" cy="838200"/>
           <a:chOff x="5105400" y="102870"/>
           <a:chExt cx="2065020" cy="853440"/>
         </a:xfrm>
@@ -1512,13 +1586,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19CC9DF-CB02-4720-9640-8E1F14AA9AE5}">
-  <dimension ref="A1:AN95"/>
+  <dimension ref="A1:AP95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G80" sqref="G80"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1544,40 +1618,40 @@
     <col min="22" max="22" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="3.44140625" customWidth="1"/>
     <col min="27" max="27" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="39" width="4.77734375" customWidth="1"/>
+    <col min="28" max="41" width="4.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1589,17 +1663,20 @@
       </c>
       <c r="G7">
         <f>SUM(B9:B95)</f>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
         <v>123</v>
       </c>
       <c r="K7">
         <f>COUNTA(A9:A95)-G7</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1718,10 +1795,16 @@
         <v>147</v>
       </c>
       <c r="AN8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1729,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <f>IF(COUNT(H9:AN9)&gt;0,1,"")</f>
+        <f>IF(COUNT(H9:AP9)&gt;0,1,"")</f>
         <v>1</v>
       </c>
       <c r="D9">
@@ -1748,30 +1831,45 @@
       <c r="AG9">
         <v>1</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AP9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:AN10)&gt;0,1,"")</f>
-        <v/>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" s="2" t="str">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:AP10)&gt;0,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
         <f t="shared" ref="G10:G73" si="1">IF(SUM(B10:F10)&gt;0,SUM(B10:F10),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1790,7 +1888,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1809,7 +1907,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1840,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1871,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1901,11 +1999,11 @@
       <c r="V15">
         <v>1</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AP15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1924,7 +2022,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1955,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1974,7 +2072,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2008,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2045,26 +2143,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2097,11 +2207,11 @@
       <c r="X22">
         <v>1</v>
       </c>
-      <c r="AN22" t="s">
+      <c r="AP22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2132,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2160,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2197,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2225,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2262,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2302,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2329,11 +2439,11 @@
       <c r="W29">
         <v>1</v>
       </c>
-      <c r="AN29" t="s">
+      <c r="AP29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2352,26 +2462,50 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="B31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
-      </c>
-      <c r="G31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2390,7 +2524,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2409,7 +2543,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2443,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2462,7 +2596,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2495,11 +2629,11 @@
       <c r="AK36">
         <v>1</v>
       </c>
-      <c r="AN36" t="s">
+      <c r="AP36" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2518,7 +2652,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2551,11 +2685,11 @@
       <c r="V38">
         <v>1</v>
       </c>
-      <c r="AN38" t="s">
+      <c r="AP38" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2586,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2617,26 +2751,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B41" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D41" t="s">
-        <v>120</v>
-      </c>
-      <c r="G41" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2655,7 +2798,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2692,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2726,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2745,7 +2888,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2764,7 +2907,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2794,11 +2937,11 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="AN47" t="s">
+      <c r="AP47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2829,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2860,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2879,7 +3022,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2898,7 +3041,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -2932,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -2960,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -2991,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -3010,7 +3153,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3041,26 +3184,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
-      <c r="B57" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D57" t="s">
-        <v>120</v>
-      </c>
-      <c r="G57" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0.5</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="AH57">
+        <v>1</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -3079,7 +3240,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3098,7 +3259,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3129,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3148,7 +3309,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3185,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3216,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3250,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3278,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3306,26 +3467,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B67" t="s">
-        <v>113</v>
-      </c>
-      <c r="C67" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D67" t="s">
-        <v>120</v>
-      </c>
-      <c r="G67" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0.5</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="AP67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3361,11 +3540,11 @@
       <c r="AL68">
         <v>1</v>
       </c>
-      <c r="AN68" t="s">
+      <c r="AP68" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3384,7 +3563,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3427,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3467,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3501,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3556,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3564,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:AN74)&gt;0,1,"")</f>
+        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:AP74)&gt;0,1,"")</f>
         <v>1</v>
       </c>
       <c r="D74">
@@ -3587,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3606,7 +3785,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3640,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3671,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3699,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3742,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3776,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3813,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3841,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3860,7 +4039,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3894,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3913,7 +4092,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3947,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3981,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3997,7 +4176,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -4030,11 +4209,11 @@
       <c r="N89">
         <v>1</v>
       </c>
-      <c r="AN89" t="s">
+      <c r="AP89" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -4061,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -4092,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -4126,7 +4305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -4157,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -4191,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D3609A-B1C5-4CC5-A7AC-33CBBD2BA20B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D811D029-DC51-4F45-BF56-DB98039F27BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="-15105" windowWidth="22305" windowHeight="12360" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="155">
   <si>
     <t>Research Questions</t>
   </si>
@@ -866,6 +866,9 @@
   </si>
   <si>
     <t>TL</t>
+  </si>
+  <si>
+    <t>SurvEnsembles</t>
   </si>
 </sst>
 </file>
@@ -995,8 +998,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5067300" y="91440"/>
-          <a:ext cx="1990725" cy="838200"/>
+          <a:off x="5067300" y="87630"/>
+          <a:ext cx="1988820" cy="853440"/>
           <a:chOff x="5105400" y="102870"/>
           <a:chExt cx="2065020" cy="853440"/>
         </a:xfrm>
@@ -1586,13 +1589,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19CC9DF-CB02-4720-9640-8E1F14AA9AE5}">
-  <dimension ref="A1:AP95"/>
+  <dimension ref="A1:AQ95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1618,40 +1621,40 @@
     <col min="22" max="22" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="3.44140625" customWidth="1"/>
     <col min="27" max="27" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="41" width="4.77734375" customWidth="1"/>
+    <col min="28" max="42" width="4.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1663,20 +1666,20 @@
       </c>
       <c r="G7">
         <f>SUM(B9:B95)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
         <v>123</v>
       </c>
       <c r="K7">
         <f>COUNTA(A9:A95)-G7</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1801,10 +1804,13 @@
         <v>153</v>
       </c>
       <c r="AP8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1812,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <f>IF(COUNT(H9:AP9)&gt;0,1,"")</f>
+        <f>IF(COUNT(H9:AQ9)&gt;0,1,"")</f>
         <v>1</v>
       </c>
       <c r="D9">
@@ -1831,11 +1837,11 @@
       <c r="AG9">
         <v>1</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1843,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:AP10)&gt;0,1,"")</f>
+        <f t="shared" ref="C10:C73" si="0">IF(COUNT(H10:AQ10)&gt;0,1,"")</f>
         <v>1</v>
       </c>
       <c r="D10">
@@ -1865,11 +1871,11 @@
       <c r="O10">
         <v>1</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AQ10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1888,7 +1894,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1907,7 +1913,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1938,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1969,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1999,11 +2005,11 @@
       <c r="V15">
         <v>1</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AQ15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2022,7 +2028,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2072,7 +2078,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2106,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2143,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2174,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2207,11 +2213,11 @@
       <c r="X22">
         <v>1</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AQ22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2242,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2270,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2307,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2372,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2412,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2439,11 +2445,11 @@
       <c r="W29">
         <v>1</v>
       </c>
-      <c r="AP29" t="s">
+      <c r="AQ29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2462,7 +2468,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2505,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2524,26 +2530,47 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D33" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.5</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="AP33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2577,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2596,7 +2623,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2629,11 +2656,11 @@
       <c r="AK36">
         <v>1</v>
       </c>
-      <c r="AP36" t="s">
+      <c r="AQ36" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2652,7 +2679,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2685,11 +2712,11 @@
       <c r="V38">
         <v>1</v>
       </c>
-      <c r="AP38" t="s">
+      <c r="AQ38" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2720,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2751,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -2775,11 +2802,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AP41" t="s">
+      <c r="AQ41" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2798,7 +2825,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2835,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2869,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2888,7 +2915,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2907,7 +2934,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2937,11 +2964,11 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="AP47" t="s">
+      <c r="AQ47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -3411,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3439,7 +3466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3467,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
@@ -3500,11 +3527,11 @@
       <c r="O67">
         <v>1</v>
       </c>
-      <c r="AP67" t="s">
+      <c r="AQ67" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3540,11 +3567,11 @@
       <c r="AL68">
         <v>1</v>
       </c>
-      <c r="AP68" t="s">
+      <c r="AQ68" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3563,7 +3590,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3606,7 +3633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3646,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3680,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3735,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3743,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:AP74)&gt;0,1,"")</f>
+        <f t="shared" ref="C74:C95" si="2">IF(COUNT(H74:AQ74)&gt;0,1,"")</f>
         <v>1</v>
       </c>
       <c r="D74">
@@ -3766,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3785,7 +3812,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3819,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3850,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3878,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3921,7 +3948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3955,7 +3982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3992,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -4020,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -4039,7 +4066,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -4073,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -4092,7 +4119,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -4126,7 +4153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -4160,7 +4187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -4176,7 +4203,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -4209,11 +4236,11 @@
       <c r="N89">
         <v>1</v>
       </c>
-      <c r="AP89" t="s">
+      <c r="AQ89" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -4240,7 +4267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -4271,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -4305,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -4336,7 +4363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -4370,7 +4397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>

--- a/analysis/qualitativeAnalysis/qualityAssessment.xlsx
+++ b/analysis/qualitativeAnalysis/qualityAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuvem\Dropbox\doutoramento\tese\SLRDropout\analysis\qualitativeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D811D029-DC51-4F45-BF56-DB98039F27BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EBEDF8-9111-4F82-A6AD-1C087EEE624C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61AFE033-8F83-4D10-B692-F560FDB82F7B}"/>
   </bookViews>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="156">
   <si>
     <t>Research Questions</t>
   </si>
@@ -869,6 +869,9 @@
   </si>
   <si>
     <t>SurvEnsembles</t>
+  </si>
+  <si>
+    <t>Exhaustive Algorithm (EA), Genetic Algorithm (GA), Covering Algorithm (CA) and the LEM2 algorithm (LA)</t>
   </si>
 </sst>
 </file>
@@ -1592,10 +1595,10 @@
   <dimension ref="A1:AQ95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1666,14 +1669,14 @@
       </c>
       <c r="G7">
         <f>SUM(B9:B95)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
         <v>123</v>
       </c>
       <c r="K7">
         <f>COUNTA(A9:A95)-G7</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN7" t="s">
         <v>151</v>
@@ -2900,19 +2903,34 @@
       <c r="A45" t="s">
         <v>51</v>
       </c>
-      <c r="B45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D45" t="s">
-        <v>120</v>
-      </c>
-      <c r="G45" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0.5</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.3">
